--- a/spliced/struggle/2023-03-25_18-16-21/data_selected.xlsx
+++ b/spliced/struggle/2023-03-25_18-16-21/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-3.428386807441711</v>
+        <v>3.09836453199387</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.201114416122437</v>
+        <v>-3.448286980390552</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.01909314095973946</v>
+        <v>1.224327325820929</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4101960062980652</v>
+        <v>0.4437935948371887</v>
       </c>
       <c r="G2" t="n">
-        <v>0.9990701079368592</v>
+        <v>-0.864068865776062</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.2145664244890213</v>
+        <v>-0.9851729273796082</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.071295976638797</v>
+        <v>5.926505327224739</v>
       </c>
       <c r="D3" t="n">
-        <v>-2.941428482532501</v>
+        <v>-2.135328322648994</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1175957471132281</v>
+        <v>-0.6819987297058234</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6151412725448608</v>
+        <v>1.0256427526474</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0621555373072624</v>
+        <v>-4.58713960647583</v>
       </c>
       <c r="H3" t="n">
-        <v>1.660179018974304</v>
+        <v>0.0221438650041818</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.011565446853637</v>
+        <v>-1.439981520175948</v>
       </c>
       <c r="D4" t="n">
-        <v>-3.031190991401672</v>
+        <v>-1.973837949335578</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.00678548216819741</v>
+        <v>-4.723978996276856</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.11636982858181</v>
+        <v>2.594497442245483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9434813857078552</v>
+        <v>0.8452847599983215</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0545197241008281</v>
+        <v>-2.786614418029785</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.462080836296082</v>
+        <v>-13.93973755836486</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.452985495328903</v>
+        <v>-5.416623592376709</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.3243236392736438</v>
+        <v>-4.78411507606506</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2817615866661072</v>
+        <v>2.057699680328369</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2797762751579284</v>
+        <v>1.456302762031555</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1502728462219238</v>
+        <v>-0.2620611786842346</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.303904652595517</v>
+        <v>-5.790439605712891</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.353205323219298</v>
+        <v>-5.474406182765961</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.294634371995929</v>
+        <v>-2.479388117790221</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1059851199388504</v>
+        <v>-0.5109887719154358</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.6275113224983215</v>
+        <v>-1.112385630607605</v>
       </c>
       <c r="H6" t="n">
-        <v>0.399200439453125</v>
+        <v>-1.43751859664917</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.8602131009101864</v>
+        <v>-6.174473762512195</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.483290255069734</v>
+        <v>-4.646332740783681</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.836389183998108</v>
+        <v>-6.182556152343746</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.5577199459075928</v>
+        <v>-0.303600013256073</v>
       </c>
       <c r="G7" t="n">
-        <v>2.784781932830811</v>
+        <v>2.510961532592773</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6846272349357605</v>
+        <v>-0.3182607889175415</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.324098110198965</v>
+        <v>-1.106817305088029</v>
       </c>
       <c r="D8" t="n">
-        <v>-5.071885108947757</v>
+        <v>0.3479279279709004</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.799089431762685</v>
+        <v>-4.026142060756678</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6629415154457092</v>
+        <v>-0.5890268087387085</v>
       </c>
       <c r="G8" t="n">
-        <v>3.707188367843628</v>
+        <v>-0.6258314251899719</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.3274237811565399</v>
+        <v>0.7171558141708374</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>8.331560194492345</v>
+        <v>-0.1755727529525754</v>
       </c>
       <c r="D9" t="n">
-        <v>-7.974580883979799</v>
+        <v>2.31334447860718</v>
       </c>
       <c r="E9" t="n">
-        <v>4.612698078155523</v>
+        <v>-5.915446519851686</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3837760984897613</v>
+        <v>1.278999090194702</v>
       </c>
       <c r="G9" t="n">
-        <v>1.931403160095215</v>
+        <v>0.4355469346046448</v>
       </c>
       <c r="H9" t="n">
-        <v>0.2281581759452819</v>
+        <v>0.9905179738998412</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3.398366570472712</v>
+        <v>1.180307447910312</v>
       </c>
       <c r="D10" t="n">
-        <v>-3.58479398488998</v>
+        <v>0.6379154920577954</v>
       </c>
       <c r="E10" t="n">
-        <v>0.4915273189544624</v>
+        <v>-5.021014630794521</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5522221922874451</v>
+        <v>-1.44057297706604</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.8506298661231995</v>
+        <v>-0.845132052898407</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2730567753314972</v>
+        <v>-0.7629706859588623</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3.09836453199387</v>
+        <v>-1.093243360519415</v>
       </c>
       <c r="D11" t="n">
-        <v>-3.448286980390552</v>
+        <v>-1.983224630355838</v>
       </c>
       <c r="E11" t="n">
-        <v>1.224327325820929</v>
+        <v>-1.879333615303035</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4437935948371887</v>
+        <v>-1.023504734039307</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.864068865776062</v>
+        <v>-0.6563746929168701</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.9851729273796082</v>
+        <v>0.645684540271759</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5.926505327224739</v>
+        <v>-3.451674103736873</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.135328322648994</v>
+        <v>-1.611639708280552</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6819987297058234</v>
+        <v>-0.6418006122112334</v>
       </c>
       <c r="F12" t="n">
-        <v>1.0256427526474</v>
+        <v>-1.10917854309082</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.58713960647583</v>
+        <v>-0.5216789245605469</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0221438650041818</v>
+        <v>0.8017606139183044</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.439981520175948</v>
+        <v>-2.273676156997681</v>
       </c>
       <c r="D13" t="n">
-        <v>-1.973837949335578</v>
+        <v>0.1646193265914786</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.723978996276856</v>
+        <v>-3.850346922874469</v>
       </c>
       <c r="F13" t="n">
-        <v>2.594497442245483</v>
+        <v>-3.361896991729736</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8452847599983215</v>
+        <v>3.937331914901733</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.786614418029785</v>
+        <v>2.076178312301636</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-13.93973755836486</v>
+        <v>-2.109282225370405</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.416623592376709</v>
+        <v>-3.67548027634622</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.78411507606506</v>
+        <v>-7.529284000396693</v>
       </c>
       <c r="F14" t="n">
-        <v>2.057699680328369</v>
+        <v>2.992323398590088</v>
       </c>
       <c r="G14" t="n">
-        <v>1.456302762031555</v>
+        <v>0.9390525817871094</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.2620611786842346</v>
+        <v>0.3888157308101654</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-5.790439605712891</v>
+        <v>-1.644850492477401</v>
       </c>
       <c r="D15" t="n">
-        <v>-5.474406182765961</v>
+        <v>-7.059904575347879</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.479388117790221</v>
+        <v>1.617063522338856</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.5109887719154358</v>
+        <v>-0.3591887652873993</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.112385630607605</v>
+        <v>1.687973380088806</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.43751859664917</v>
+        <v>0.8848382830619812</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-6.174473762512195</v>
+        <v>1.835043907165529</v>
       </c>
       <c r="D16" t="n">
-        <v>-4.646332740783681</v>
+        <v>-2.18121553957462</v>
       </c>
       <c r="E16" t="n">
-        <v>-6.182556152343746</v>
+        <v>-0.952013134956361</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.303600013256073</v>
+        <v>1.22615921497345</v>
       </c>
       <c r="G16" t="n">
-        <v>2.510961532592773</v>
+        <v>0.5057964324951172</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.3182607889175415</v>
+        <v>0.3527746796607971</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.106817305088029</v>
+        <v>8.433930218219764</v>
       </c>
       <c r="D17" t="n">
-        <v>0.3479279279709004</v>
+        <v>-3.52629014849663</v>
       </c>
       <c r="E17" t="n">
-        <v>-4.026142060756678</v>
+        <v>2.835070371627813</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5890268087387085</v>
+        <v>-0.1565342247486114</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.6258314251899719</v>
+        <v>-0.5474879741668701</v>
       </c>
       <c r="H17" t="n">
-        <v>0.7171558141708374</v>
+        <v>0.3535382747650146</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.1755727529525754</v>
+        <v>-5.246673464775119</v>
       </c>
       <c r="D18" t="n">
-        <v>2.31334447860718</v>
+        <v>-3.962655484676361</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.915446519851686</v>
+        <v>-5.154342770576502</v>
       </c>
       <c r="F18" t="n">
-        <v>1.278999090194702</v>
+        <v>0.4882340431213379</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4355469346046448</v>
+        <v>-7.02800464630127</v>
       </c>
       <c r="H18" t="n">
-        <v>0.9905179738998412</v>
+        <v>-4.413654327392578</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.180307447910312</v>
+        <v>-7.417413711547821</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6379154920577954</v>
+        <v>-2.038821458816521</v>
       </c>
       <c r="E19" t="n">
-        <v>-5.021014630794521</v>
+        <v>-6.523755788803086</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.44057297706604</v>
+        <v>1.305877208709717</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.845132052898407</v>
+        <v>-2.09221339225769</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.7629706859588623</v>
+        <v>-1.915520668029785</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.093243360519415</v>
+        <v>0.6842400431633051</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.983224630355838</v>
+        <v>-3.085346877574939</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.879333615303035</v>
+        <v>-2.034696012735365</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.023504734039307</v>
+        <v>1.73409366607666</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.6563746929168701</v>
+        <v>-3.325092315673828</v>
       </c>
       <c r="H20" t="n">
-        <v>0.645684540271759</v>
+        <v>-2.228436470031738</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-3.451674103736873</v>
+        <v>1.740720510482789</v>
       </c>
       <c r="D21" t="n">
-        <v>-1.611639708280552</v>
+        <v>-5.68582010269165</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.6418006122112334</v>
+        <v>-1.830426752567291</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.10917854309082</v>
+        <v>-2.827542543411255</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.5216789245605469</v>
+        <v>-0.811687171459198</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8017606139183044</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>struggle</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-2.273676156997681</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.1646193265914786</v>
-      </c>
-      <c r="E22" t="n">
-        <v>-3.850346922874469</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-3.361896991729736</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3.937331914901733</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2.076178312301636</v>
+        <v>-1.57450520992279</v>
       </c>
     </row>
   </sheetData>
